--- a/2022/Symphony/APRIL/28.04.2022/MC Bank Statement April-2022.xlsx
+++ b/2022/Symphony/APRIL/28.04.2022/MC Bank Statement April-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3231,6 +3231,21 @@
     <xf numFmtId="0" fontId="34" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3242,6 +3257,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3270,22 +3297,10 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3377,21 +3392,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4081,33 +4081,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="311"/>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
+      <c r="A1" s="316"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="312"/>
-      <c r="B2" s="309" t="s">
+      <c r="A2" s="317"/>
+      <c r="B2" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="312"/>
-      <c r="B3" s="310" t="s">
+      <c r="A3" s="317"/>
+      <c r="B3" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="312"/>
+      <c r="A4" s="317"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4125,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="312"/>
+      <c r="A5" s="317"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="312"/>
+      <c r="A6" s="317"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4155,7 +4155,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="312"/>
+      <c r="A7" s="317"/>
       <c r="B7" s="26" t="s">
         <v>56</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="312"/>
+      <c r="A8" s="317"/>
       <c r="B8" s="26" t="s">
         <v>57</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="312"/>
+      <c r="A9" s="317"/>
       <c r="B9" s="26" t="s">
         <v>59</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="312"/>
+      <c r="A10" s="317"/>
       <c r="B10" s="26" t="s">
         <v>60</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="312"/>
+      <c r="A11" s="317"/>
       <c r="B11" s="26" t="s">
         <v>61</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="312"/>
+      <c r="A12" s="317"/>
       <c r="B12" s="26" t="s">
         <v>62</v>
       </c>
@@ -4269,7 +4269,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="312"/>
+      <c r="A13" s="317"/>
       <c r="B13" s="26" t="s">
         <v>63</v>
       </c>
@@ -4288,7 +4288,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="312"/>
+      <c r="A14" s="317"/>
       <c r="B14" s="26" t="s">
         <v>64</v>
       </c>
@@ -4307,7 +4307,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="312"/>
+      <c r="A15" s="317"/>
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -4326,7 +4326,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="312"/>
+      <c r="A16" s="317"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4339,7 +4339,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="312"/>
+      <c r="A17" s="317"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4352,7 +4352,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="312"/>
+      <c r="A18" s="317"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4365,7 +4365,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="312"/>
+      <c r="A19" s="317"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4378,7 +4378,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="312"/>
+      <c r="A20" s="317"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4391,7 +4391,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="312"/>
+      <c r="A21" s="317"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4404,7 +4404,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="312"/>
+      <c r="A22" s="317"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4417,7 +4417,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="312"/>
+      <c r="A23" s="317"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4430,7 +4430,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="312"/>
+      <c r="A24" s="317"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4443,7 +4443,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="312"/>
+      <c r="A25" s="317"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4456,7 +4456,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="312"/>
+      <c r="A26" s="317"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4469,7 +4469,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="312"/>
+      <c r="A27" s="317"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4482,7 +4482,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="312"/>
+      <c r="A28" s="317"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4495,7 +4495,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="312"/>
+      <c r="A29" s="317"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4508,7 +4508,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="312"/>
+      <c r="A30" s="317"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4521,7 +4521,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="312"/>
+      <c r="A31" s="317"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4534,7 +4534,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="312"/>
+      <c r="A32" s="317"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4547,7 +4547,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="312"/>
+      <c r="A33" s="317"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4560,7 +4560,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="312"/>
+      <c r="A34" s="317"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4573,7 +4573,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="312"/>
+      <c r="A35" s="317"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4586,7 +4586,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="312"/>
+      <c r="A36" s="317"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4599,7 +4599,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="312"/>
+      <c r="A37" s="317"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4612,7 +4612,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="312"/>
+      <c r="A38" s="317"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4625,7 +4625,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="312"/>
+      <c r="A39" s="317"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4638,7 +4638,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="312"/>
+      <c r="A40" s="317"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4651,7 +4651,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="312"/>
+      <c r="A41" s="317"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4664,7 +4664,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="312"/>
+      <c r="A42" s="317"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4677,7 +4677,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="312"/>
+      <c r="A43" s="317"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4690,7 +4690,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="312"/>
+      <c r="A44" s="317"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4703,7 +4703,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="312"/>
+      <c r="A45" s="317"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4716,7 +4716,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="312"/>
+      <c r="A46" s="317"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4729,7 +4729,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="312"/>
+      <c r="A47" s="317"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4742,7 +4742,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="312"/>
+      <c r="A48" s="317"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4755,7 +4755,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="312"/>
+      <c r="A49" s="317"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4768,7 +4768,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="312"/>
+      <c r="A50" s="317"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4781,7 +4781,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="312"/>
+      <c r="A51" s="317"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4794,7 +4794,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="312"/>
+      <c r="A52" s="317"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4807,7 +4807,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="312"/>
+      <c r="A53" s="317"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4820,7 +4820,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="312"/>
+      <c r="A54" s="317"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4833,7 +4833,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="312"/>
+      <c r="A55" s="317"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4845,7 +4845,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="312"/>
+      <c r="A56" s="317"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4857,7 +4857,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="312"/>
+      <c r="A57" s="317"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4869,7 +4869,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="312"/>
+      <c r="A58" s="317"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4881,7 +4881,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="312"/>
+      <c r="A59" s="317"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4893,7 +4893,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="312"/>
+      <c r="A60" s="317"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4905,7 +4905,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="312"/>
+      <c r="A61" s="317"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4917,7 +4917,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="312"/>
+      <c r="A62" s="317"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4929,7 +4929,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="312"/>
+      <c r="A63" s="317"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4941,7 +4941,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="312"/>
+      <c r="A64" s="317"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4953,7 +4953,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="312"/>
+      <c r="A65" s="317"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4965,7 +4965,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="312"/>
+      <c r="A66" s="317"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4977,7 +4977,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="312"/>
+      <c r="A67" s="317"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4989,7 +4989,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="312"/>
+      <c r="A68" s="317"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5001,7 +5001,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="312"/>
+      <c r="A69" s="317"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5013,7 +5013,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="312"/>
+      <c r="A70" s="317"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5025,7 +5025,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="312"/>
+      <c r="A71" s="317"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5037,7 +5037,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="312"/>
+      <c r="A72" s="317"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5049,7 +5049,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="312"/>
+      <c r="A73" s="317"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5061,7 +5061,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="312"/>
+      <c r="A74" s="317"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5073,7 +5073,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="312"/>
+      <c r="A75" s="317"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5085,7 +5085,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="312"/>
+      <c r="A76" s="317"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5097,7 +5097,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="312"/>
+      <c r="A77" s="317"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5109,7 +5109,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="312"/>
+      <c r="A78" s="317"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5121,7 +5121,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="312"/>
+      <c r="A79" s="317"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5133,7 +5133,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="312"/>
+      <c r="A80" s="317"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5145,7 +5145,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="312"/>
+      <c r="A81" s="317"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5157,7 +5157,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="312"/>
+      <c r="A82" s="317"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5169,7 +5169,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="312"/>
+      <c r="A83" s="317"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5226,33 +5226,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="311"/>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
+      <c r="A1" s="316"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="312"/>
-      <c r="B2" s="309" t="s">
+      <c r="A2" s="317"/>
+      <c r="B2" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="312"/>
-      <c r="B3" s="310" t="s">
+      <c r="A3" s="317"/>
+      <c r="B3" s="315" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="312"/>
+      <c r="A4" s="317"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5270,7 +5270,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="312"/>
+      <c r="A5" s="317"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="312"/>
+      <c r="A6" s="317"/>
       <c r="B6" s="26"/>
       <c r="C6" s="261"/>
       <c r="D6" s="261"/>
@@ -5300,7 +5300,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="312"/>
+      <c r="A7" s="317"/>
       <c r="B7" s="26" t="s">
         <v>199</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="312"/>
+      <c r="A8" s="317"/>
       <c r="B8" s="26" t="s">
         <v>205</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="312"/>
+      <c r="A9" s="317"/>
       <c r="B9" s="26" t="s">
         <v>211</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="312"/>
+      <c r="A10" s="317"/>
       <c r="B10" s="26" t="s">
         <v>212</v>
       </c>
@@ -5372,7 +5372,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="312"/>
+      <c r="A11" s="317"/>
       <c r="B11" s="26" t="s">
         <v>216</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="312"/>
+      <c r="A12" s="317"/>
       <c r="B12" s="26" t="s">
         <v>217</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="312"/>
+      <c r="A13" s="317"/>
       <c r="B13" s="26" t="s">
         <v>220</v>
       </c>
@@ -5426,7 +5426,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="312"/>
+      <c r="A14" s="317"/>
       <c r="B14" s="26" t="s">
         <v>221</v>
       </c>
@@ -5444,7 +5444,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="312"/>
+      <c r="A15" s="317"/>
       <c r="B15" s="26" t="s">
         <v>223</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="312"/>
+      <c r="A16" s="317"/>
       <c r="B16" s="26" t="s">
         <v>226</v>
       </c>
@@ -5480,7 +5480,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="312"/>
+      <c r="A17" s="317"/>
       <c r="B17" s="26" t="s">
         <v>230</v>
       </c>
@@ -5498,7 +5498,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="312"/>
+      <c r="A18" s="317"/>
       <c r="B18" s="26" t="s">
         <v>231</v>
       </c>
@@ -5516,7 +5516,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="312"/>
+      <c r="A19" s="317"/>
       <c r="B19" s="26" t="s">
         <v>232</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="312"/>
+      <c r="A20" s="317"/>
       <c r="B20" s="26" t="s">
         <v>234</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="312"/>
+      <c r="A21" s="317"/>
       <c r="B21" s="26" t="s">
         <v>237</v>
       </c>
@@ -5570,7 +5570,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="312"/>
+      <c r="A22" s="317"/>
       <c r="B22" s="26" t="s">
         <v>240</v>
       </c>
@@ -5588,7 +5588,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="312"/>
+      <c r="A23" s="317"/>
       <c r="B23" s="26" t="s">
         <v>243</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="312"/>
+      <c r="A24" s="317"/>
       <c r="B24" s="26" t="s">
         <v>245</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="312"/>
+      <c r="A25" s="317"/>
       <c r="B25" s="302" t="s">
         <v>245</v>
       </c>
@@ -5644,7 +5644,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="312"/>
+      <c r="A26" s="317"/>
       <c r="B26" s="26" t="s">
         <v>248</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="312"/>
+      <c r="A27" s="317"/>
       <c r="B27" s="26" t="s">
         <v>251</v>
       </c>
@@ -5680,7 +5680,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="312"/>
+      <c r="A28" s="317"/>
       <c r="B28" s="26" t="s">
         <v>256</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="312"/>
+      <c r="A29" s="317"/>
       <c r="B29" s="26" t="s">
         <v>262</v>
       </c>
@@ -5715,7 +5715,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="312"/>
+      <c r="A30" s="317"/>
       <c r="B30" s="26" t="s">
         <v>266</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="312"/>
+      <c r="A31" s="317"/>
       <c r="B31" s="26" t="s">
         <v>270</v>
       </c>
@@ -5751,7 +5751,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="312"/>
+      <c r="A32" s="317"/>
       <c r="B32" s="26" t="s">
         <v>274</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="312"/>
+      <c r="A33" s="317"/>
       <c r="B33" s="26" t="s">
         <v>274</v>
       </c>
@@ -5787,7 +5787,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="312"/>
+      <c r="A34" s="317"/>
       <c r="B34" s="26"/>
       <c r="C34" s="261"/>
       <c r="D34" s="261"/>
@@ -5799,7 +5799,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="312"/>
+      <c r="A35" s="317"/>
       <c r="B35" s="26"/>
       <c r="C35" s="261"/>
       <c r="D35" s="261"/>
@@ -5811,7 +5811,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="312"/>
+      <c r="A36" s="317"/>
       <c r="B36" s="26"/>
       <c r="C36" s="261"/>
       <c r="D36" s="261"/>
@@ -5823,7 +5823,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="312"/>
+      <c r="A37" s="317"/>
       <c r="B37" s="26"/>
       <c r="C37" s="261"/>
       <c r="D37" s="261"/>
@@ -5835,7 +5835,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="312"/>
+      <c r="A38" s="317"/>
       <c r="B38" s="26"/>
       <c r="C38" s="261"/>
       <c r="D38" s="261"/>
@@ -5847,7 +5847,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="312"/>
+      <c r="A39" s="317"/>
       <c r="B39" s="26"/>
       <c r="C39" s="261"/>
       <c r="D39" s="261"/>
@@ -5859,7 +5859,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="312"/>
+      <c r="A40" s="317"/>
       <c r="B40" s="26"/>
       <c r="C40" s="261"/>
       <c r="D40" s="261"/>
@@ -5871,7 +5871,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="312"/>
+      <c r="A41" s="317"/>
       <c r="B41" s="26"/>
       <c r="C41" s="261"/>
       <c r="D41" s="261"/>
@@ -5883,7 +5883,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="312"/>
+      <c r="A42" s="317"/>
       <c r="B42" s="26"/>
       <c r="C42" s="261"/>
       <c r="D42" s="261"/>
@@ -5895,7 +5895,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="312"/>
+      <c r="A43" s="317"/>
       <c r="B43" s="26"/>
       <c r="C43" s="261"/>
       <c r="D43" s="261"/>
@@ -5907,7 +5907,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="312"/>
+      <c r="A44" s="317"/>
       <c r="B44" s="26"/>
       <c r="C44" s="261"/>
       <c r="D44" s="261"/>
@@ -5919,7 +5919,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="312"/>
+      <c r="A45" s="317"/>
       <c r="B45" s="26"/>
       <c r="C45" s="261"/>
       <c r="D45" s="261"/>
@@ -5931,7 +5931,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="312"/>
+      <c r="A46" s="317"/>
       <c r="B46" s="26"/>
       <c r="C46" s="261"/>
       <c r="D46" s="261"/>
@@ -5943,7 +5943,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="312"/>
+      <c r="A47" s="317"/>
       <c r="B47" s="26"/>
       <c r="C47" s="261"/>
       <c r="D47" s="261"/>
@@ -5955,7 +5955,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="312"/>
+      <c r="A48" s="317"/>
       <c r="B48" s="26"/>
       <c r="C48" s="261"/>
       <c r="D48" s="261"/>
@@ -5967,7 +5967,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="312"/>
+      <c r="A49" s="317"/>
       <c r="B49" s="26"/>
       <c r="C49" s="261"/>
       <c r="D49" s="261"/>
@@ -5979,7 +5979,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="312"/>
+      <c r="A50" s="317"/>
       <c r="B50" s="26"/>
       <c r="C50" s="261"/>
       <c r="D50" s="261"/>
@@ -5991,7 +5991,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="312"/>
+      <c r="A51" s="317"/>
       <c r="B51" s="26"/>
       <c r="C51" s="261"/>
       <c r="D51" s="261"/>
@@ -6003,7 +6003,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="312"/>
+      <c r="A52" s="317"/>
       <c r="B52" s="26"/>
       <c r="C52" s="261"/>
       <c r="D52" s="261"/>
@@ -6015,7 +6015,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="312"/>
+      <c r="A53" s="317"/>
       <c r="B53" s="26"/>
       <c r="C53" s="261"/>
       <c r="D53" s="261"/>
@@ -6027,7 +6027,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="312"/>
+      <c r="A54" s="317"/>
       <c r="B54" s="26"/>
       <c r="C54" s="261"/>
       <c r="D54" s="261"/>
@@ -6039,7 +6039,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="312"/>
+      <c r="A55" s="317"/>
       <c r="B55" s="26"/>
       <c r="C55" s="261"/>
       <c r="D55" s="261"/>
@@ -6050,7 +6050,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="312"/>
+      <c r="A56" s="317"/>
       <c r="B56" s="26"/>
       <c r="C56" s="261"/>
       <c r="D56" s="261"/>
@@ -6061,7 +6061,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="312"/>
+      <c r="A57" s="317"/>
       <c r="B57" s="26"/>
       <c r="C57" s="261"/>
       <c r="D57" s="261"/>
@@ -6072,7 +6072,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="312"/>
+      <c r="A58" s="317"/>
       <c r="B58" s="26"/>
       <c r="C58" s="261"/>
       <c r="D58" s="261"/>
@@ -6083,7 +6083,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="312"/>
+      <c r="A59" s="317"/>
       <c r="B59" s="26"/>
       <c r="C59" s="261"/>
       <c r="D59" s="261"/>
@@ -6094,7 +6094,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="312"/>
+      <c r="A60" s="317"/>
       <c r="B60" s="26"/>
       <c r="C60" s="261"/>
       <c r="D60" s="261"/>
@@ -6105,7 +6105,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="312"/>
+      <c r="A61" s="317"/>
       <c r="B61" s="26"/>
       <c r="C61" s="261"/>
       <c r="D61" s="261"/>
@@ -6116,7 +6116,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="312"/>
+      <c r="A62" s="317"/>
       <c r="B62" s="26"/>
       <c r="C62" s="261"/>
       <c r="D62" s="261"/>
@@ -6127,7 +6127,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="312"/>
+      <c r="A63" s="317"/>
       <c r="B63" s="26"/>
       <c r="C63" s="261"/>
       <c r="D63" s="261"/>
@@ -6138,7 +6138,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="312"/>
+      <c r="A64" s="317"/>
       <c r="B64" s="26"/>
       <c r="C64" s="261"/>
       <c r="D64" s="261"/>
@@ -6149,7 +6149,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="312"/>
+      <c r="A65" s="317"/>
       <c r="B65" s="26"/>
       <c r="C65" s="261"/>
       <c r="D65" s="261"/>
@@ -6160,7 +6160,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="312"/>
+      <c r="A66" s="317"/>
       <c r="B66" s="26"/>
       <c r="C66" s="261"/>
       <c r="D66" s="261"/>
@@ -6171,7 +6171,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="312"/>
+      <c r="A67" s="317"/>
       <c r="B67" s="26"/>
       <c r="C67" s="261"/>
       <c r="D67" s="261"/>
@@ -6182,7 +6182,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="312"/>
+      <c r="A68" s="317"/>
       <c r="B68" s="26"/>
       <c r="C68" s="261"/>
       <c r="D68" s="261"/>
@@ -6193,7 +6193,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="312"/>
+      <c r="A69" s="317"/>
       <c r="B69" s="26"/>
       <c r="C69" s="261"/>
       <c r="D69" s="261"/>
@@ -6204,7 +6204,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="312"/>
+      <c r="A70" s="317"/>
       <c r="B70" s="26"/>
       <c r="C70" s="261"/>
       <c r="D70" s="261"/>
@@ -6215,7 +6215,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="312"/>
+      <c r="A71" s="317"/>
       <c r="B71" s="26"/>
       <c r="C71" s="261"/>
       <c r="D71" s="261"/>
@@ -6226,7 +6226,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="312"/>
+      <c r="A72" s="317"/>
       <c r="B72" s="26"/>
       <c r="C72" s="261"/>
       <c r="D72" s="261"/>
@@ -6237,7 +6237,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="312"/>
+      <c r="A73" s="317"/>
       <c r="B73" s="26"/>
       <c r="C73" s="261"/>
       <c r="D73" s="261"/>
@@ -6248,7 +6248,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="312"/>
+      <c r="A74" s="317"/>
       <c r="B74" s="26"/>
       <c r="C74" s="261"/>
       <c r="D74" s="261"/>
@@ -6259,7 +6259,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="312"/>
+      <c r="A75" s="317"/>
       <c r="B75" s="26"/>
       <c r="C75" s="261"/>
       <c r="D75" s="261"/>
@@ -6270,7 +6270,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="312"/>
+      <c r="A76" s="317"/>
       <c r="B76" s="26"/>
       <c r="C76" s="261"/>
       <c r="D76" s="261"/>
@@ -6281,7 +6281,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="312"/>
+      <c r="A77" s="317"/>
       <c r="B77" s="26"/>
       <c r="C77" s="261"/>
       <c r="D77" s="261"/>
@@ -6292,7 +6292,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="312"/>
+      <c r="A78" s="317"/>
       <c r="B78" s="26"/>
       <c r="C78" s="261"/>
       <c r="D78" s="261"/>
@@ -6303,7 +6303,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="312"/>
+      <c r="A79" s="317"/>
       <c r="B79" s="26"/>
       <c r="C79" s="261"/>
       <c r="D79" s="261"/>
@@ -6315,7 +6315,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="312"/>
+      <c r="A80" s="317"/>
       <c r="B80" s="26"/>
       <c r="C80" s="261"/>
       <c r="D80" s="261"/>
@@ -6327,7 +6327,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="312"/>
+      <c r="A81" s="317"/>
       <c r="B81" s="26"/>
       <c r="C81" s="261"/>
       <c r="D81" s="261"/>
@@ -6339,7 +6339,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="312"/>
+      <c r="A82" s="317"/>
       <c r="B82" s="26"/>
       <c r="C82" s="261"/>
       <c r="D82" s="261"/>
@@ -6351,7 +6351,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="312"/>
+      <c r="A83" s="317"/>
       <c r="B83" s="295"/>
       <c r="C83" s="262">
         <f>SUM(C5:C72)</f>
@@ -6405,7 +6405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6419,67 +6419,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="322" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
+      <c r="J1" s="322"/>
+      <c r="K1" s="322"/>
+      <c r="L1" s="322"/>
+      <c r="M1" s="322"/>
+      <c r="N1" s="322"/>
+      <c r="O1" s="322"/>
+      <c r="P1" s="322"/>
+      <c r="Q1" s="322"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="323" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="314"/>
-      <c r="Q2" s="314"/>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="323"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="323"/>
+      <c r="I2" s="323"/>
+      <c r="J2" s="323"/>
+      <c r="K2" s="323"/>
+      <c r="L2" s="323"/>
+      <c r="M2" s="323"/>
+      <c r="N2" s="323"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="323"/>
+      <c r="Q2" s="323"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="324" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="316"/>
-      <c r="N3" s="316"/>
-      <c r="O3" s="316"/>
-      <c r="P3" s="316"/>
-      <c r="Q3" s="317"/>
+      <c r="B3" s="325"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="325"/>
+      <c r="H3" s="325"/>
+      <c r="I3" s="325"/>
+      <c r="J3" s="325"/>
+      <c r="K3" s="325"/>
+      <c r="L3" s="325"/>
+      <c r="M3" s="325"/>
+      <c r="N3" s="325"/>
+      <c r="O3" s="325"/>
+      <c r="P3" s="325"/>
+      <c r="Q3" s="326"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6488,52 +6488,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="318" t="s">
+      <c r="A4" s="327" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="320" t="s">
+      <c r="B4" s="329" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="322" t="s">
+      <c r="C4" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="322" t="s">
+      <c r="D4" s="318" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="322" t="s">
+      <c r="E4" s="318" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="322" t="s">
+      <c r="F4" s="318" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="322" t="s">
+      <c r="G4" s="318" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="322" t="s">
+      <c r="H4" s="318" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="322" t="s">
+      <c r="I4" s="318" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="322" t="s">
+      <c r="J4" s="318" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="322" t="s">
+      <c r="K4" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="322" t="s">
+      <c r="L4" s="318" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="322" t="s">
+      <c r="M4" s="318" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="322" t="s">
+      <c r="N4" s="318" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="326" t="s">
+      <c r="O4" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="324" t="s">
+      <c r="P4" s="331" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6546,22 +6546,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="319"/>
-      <c r="B5" s="321"/>
-      <c r="C5" s="323"/>
-      <c r="D5" s="323"/>
-      <c r="E5" s="323"/>
-      <c r="F5" s="323"/>
-      <c r="G5" s="323"/>
-      <c r="H5" s="323"/>
-      <c r="I5" s="323"/>
-      <c r="J5" s="323"/>
-      <c r="K5" s="323"/>
-      <c r="L5" s="323"/>
-      <c r="M5" s="323"/>
-      <c r="N5" s="323"/>
-      <c r="O5" s="327"/>
-      <c r="P5" s="325"/>
+      <c r="A5" s="328"/>
+      <c r="B5" s="330"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="319"/>
+      <c r="J5" s="319"/>
+      <c r="K5" s="319"/>
+      <c r="L5" s="319"/>
+      <c r="M5" s="319"/>
+      <c r="N5" s="319"/>
+      <c r="O5" s="321"/>
+      <c r="P5" s="332"/>
       <c r="Q5" s="133" t="s">
         <v>45</v>
       </c>
@@ -9790,6 +9790,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9806,9 +9809,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9822,8 +9822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9850,14 +9850,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="334"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="339"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="149"/>
@@ -9951,14 +9951,14 @@
       <c r="CS1" s="144"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="340" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="336"/>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="337"/>
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="342"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="149"/>
@@ -10052,14 +10052,14 @@
       <c r="CS2" s="144"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="338" t="s">
+      <c r="A3" s="343" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="339"/>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339"/>
-      <c r="F3" s="340"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="345"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="149"/>
@@ -12913,14 +12913,14 @@
         <v>1088670</v>
       </c>
       <c r="C29" s="56">
-        <v>542560</v>
+        <v>541560</v>
       </c>
       <c r="D29" s="53">
         <v>2860</v>
       </c>
       <c r="E29" s="53">
         <f t="shared" si="0"/>
-        <v>545420</v>
+        <v>544420</v>
       </c>
       <c r="F29" s="242"/>
       <c r="G29" s="251"/>
@@ -13331,7 +13331,7 @@
       </c>
       <c r="C33" s="266">
         <f>SUM(C5:C32)</f>
-        <v>10330035</v>
+        <v>10329035</v>
       </c>
       <c r="D33" s="265">
         <f>SUM(D5:D32)</f>
@@ -13339,11 +13339,11 @@
       </c>
       <c r="E33" s="265">
         <f>SUM(E5:E32)</f>
-        <v>10398170</v>
+        <v>10397170</v>
       </c>
       <c r="F33" s="265">
         <f>B33-E33</f>
-        <v>1467140</v>
+        <v>1468140</v>
       </c>
       <c r="G33" s="267"/>
       <c r="H33" s="145"/>
@@ -13538,12 +13538,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="139"/>
-      <c r="B35" s="330" t="s">
+      <c r="B35" s="335" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="330"/>
-      <c r="D35" s="330"/>
-      <c r="E35" s="330"/>
+      <c r="C35" s="335"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="335"/>
       <c r="F35" s="140"/>
       <c r="G35" s="145"/>
       <c r="H35" s="145"/>
@@ -13760,10 +13760,10 @@
         <v>250</v>
       </c>
       <c r="D37" s="214">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E37" s="281" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="F37" s="140"/>
       <c r="G37" s="145"/>
@@ -14424,10 +14424,10 @@
         <v>256</v>
       </c>
       <c r="F43" s="140"/>
-      <c r="G43" s="331"/>
-      <c r="H43" s="331"/>
-      <c r="I43" s="331"/>
-      <c r="J43" s="331"/>
+      <c r="G43" s="336"/>
+      <c r="H43" s="336"/>
+      <c r="I43" s="336"/>
+      <c r="J43" s="336"/>
       <c r="K43" s="65"/>
       <c r="L43" s="149"/>
       <c r="M43" s="65"/>
@@ -23059,14 +23059,14 @@
       <c r="CS118" s="144"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="328" t="s">
+      <c r="A119" s="333" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="329"/>
-      <c r="C119" s="341"/>
+      <c r="B119" s="334"/>
+      <c r="C119" s="346"/>
       <c r="D119" s="221">
         <f>SUM(D37:D118)</f>
-        <v>3831395</v>
+        <v>3832395</v>
       </c>
       <c r="E119" s="213"/>
       <c r="F119" s="144"/>
@@ -23266,14 +23266,14 @@
       <c r="CS120" s="144"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="328" t="s">
+      <c r="A121" s="333" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="329"/>
-      <c r="C121" s="329"/>
+      <c r="B121" s="334"/>
+      <c r="C121" s="334"/>
       <c r="D121" s="221">
         <f>D119+M121</f>
-        <v>3831395</v>
+        <v>3832395</v>
       </c>
       <c r="E121" s="213"/>
       <c r="F121" s="144"/>
@@ -34507,7 +34507,7 @@
   </sheetPr>
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -34527,35 +34527,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="350" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="346"/>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="347"/>
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="352"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="356" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="352"/>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="353"/>
+      <c r="B2" s="357"/>
+      <c r="C2" s="357"/>
+      <c r="D2" s="357"/>
+      <c r="E2" s="358"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="348" t="s">
+      <c r="A3" s="353" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="349"/>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="350"/>
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="355"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34578,15 +34578,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="354" t="s">
+      <c r="A4" s="359" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="355"/>
+      <c r="B4" s="360"/>
       <c r="C4" s="272"/>
-      <c r="D4" s="356" t="s">
+      <c r="D4" s="361" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="357"/>
+      <c r="E4" s="362"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -34807,10 +34807,10 @@
       <c r="Y10" s="7"/>
     </row>
     <row r="11" spans="1:25" ht="21.75">
-      <c r="A11" s="358" t="s">
+      <c r="A11" s="309" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="359">
+      <c r="B11" s="310">
         <f>B6-B9-B10</f>
         <v>245156.00204271864</v>
       </c>
@@ -34970,7 +34970,7 @@
       <c r="A16" s="297" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="360">
+      <c r="B16" s="311">
         <v>3000000</v>
       </c>
       <c r="C16" s="40"/>
@@ -35067,13 +35067,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="342" t="s">
+      <c r="A19" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="343"/>
-      <c r="C19" s="343"/>
-      <c r="D19" s="343"/>
-      <c r="E19" s="344"/>
+      <c r="B19" s="348"/>
+      <c r="C19" s="348"/>
+      <c r="D19" s="348"/>
+      <c r="E19" s="349"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -35292,10 +35292,10 @@
       <c r="Y25" s="7"/>
     </row>
     <row r="26" spans="1:25" ht="21.75">
-      <c r="A26" s="361" t="s">
+      <c r="A26" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="362">
+      <c r="B26" s="313">
         <v>22000</v>
       </c>
       <c r="C26" s="128"/>
